--- a/data/evaluation/evaluation_South_Winter_Pomelo.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Pomelo.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3619.677162733456</v>
+        <v>3663.320179810025</v>
       </c>
       <c r="C4" t="n">
-        <v>24382881.78055936</v>
+        <v>25136693.99901253</v>
       </c>
       <c r="D4" t="n">
-        <v>4937.902568961781</v>
+        <v>5013.650765561212</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2022679870381803</v>
+        <v>-0.2394368625895138</v>
       </c>
     </row>
     <row r="5">
